--- a/M.xlsx
+++ b/M.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>x_axis</t>
   </si>
@@ -25,6 +25,15 @@
   </si>
   <si>
     <t>prediction</t>
+  </si>
+  <si>
+    <t>g__CAG-485</t>
+  </si>
+  <si>
+    <t>g__CAG-873</t>
+  </si>
+  <si>
+    <t>g__UBA7173</t>
   </si>
 </sst>
 </file>
@@ -45,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -55,14 +64,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -75,23 +92,23 @@
   <dimension ref="A1:D36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="true"/>
-    <col min="2" max="2" width="6.5703125" customWidth="true"/>
-    <col min="3" max="3" width="6.42578125" customWidth="true"/>
+    <col min="1" max="1" width="11.5703125" customWidth="true"/>
+    <col min="2" max="2" width="11.5703125" customWidth="true"/>
+    <col min="3" max="3" width="11.85546875" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
